--- a/re-standard/src/main/java/com/g2forge/reassert/standard/model/contract/license/standardlicense.xlsx
+++ b/re-standard/src/main/java/com/g2forge/reassert/standard/model/contract/license/standardlicense.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\greg\g2forge\reassert\re-contract\src\main\java\com\g2forge\reassert\contract\license\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\greg\g2forge\reassert\re-standard\src\main\java\com\g2forge\reassert\standard\model\contract\license\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6DA3D25-FE41-4246-90A0-C17B0D3CB4BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD3F90D-55F3-4A8C-9E5E-E2BD77AEEF93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="standardlicense" sheetId="1" r:id="rId1"/>
@@ -67,61 +67,61 @@
     <t>PatentNonGrant</t>
   </si>
   <si>
-    <t>Apache2</t>
-  </si>
-  <si>
     <t>Included</t>
   </si>
   <si>
     <t>Excluded</t>
   </si>
   <si>
-    <t>BSD2</t>
-  </si>
-  <si>
-    <t>BSD3</t>
-  </si>
-  <si>
-    <t>GPL2Only</t>
-  </si>
-  <si>
-    <t>GPL2OrLater</t>
-  </si>
-  <si>
-    <t>GPL3Only</t>
-  </si>
-  <si>
-    <t>GPL3OrLater</t>
-  </si>
-  <si>
-    <t>LGPL2Only</t>
-  </si>
-  <si>
-    <t>LGPL2OrLater</t>
-  </si>
-  <si>
-    <t>LGPL21Only</t>
-  </si>
-  <si>
-    <t>LGPL21OrLater</t>
-  </si>
-  <si>
-    <t>LGPL3Only</t>
-  </si>
-  <si>
-    <t>LGPL3OrLater</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
-    <t>ZLIB</t>
+    <t>Apache-2.0</t>
+  </si>
+  <si>
+    <t>BSD-2-Clause</t>
+  </si>
+  <si>
+    <t>BSD-3-Clause</t>
+  </si>
+  <si>
+    <t>GPL-2.0-only</t>
+  </si>
+  <si>
+    <t>GPL-2.0-or-later</t>
+  </si>
+  <si>
+    <t>GPL-3.0-only</t>
+  </si>
+  <si>
+    <t>GPL-3.0-or-later</t>
+  </si>
+  <si>
+    <t>LGPL-2.0-only</t>
+  </si>
+  <si>
+    <t>LGPL-2.0-or-later</t>
+  </si>
+  <si>
+    <t>LGPL-2.1-only</t>
+  </si>
+  <si>
+    <t>LGPL-2.1-or-later</t>
+  </si>
+  <si>
+    <t>LGPL-3.0-only</t>
+  </si>
+  <si>
+    <t>LGPL-3.0-or-later</t>
+  </si>
+  <si>
+    <t>Zlib</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -646,7 +646,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -671,83 +671,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1065,11 +988,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,660 +1054,660 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1792,56 +1715,56 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F16">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Included"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:K16">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Included"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/re-standard/src/main/java/com/g2forge/reassert/standard/model/contract/license/standardlicense.xlsx
+++ b/re-standard/src/main/java/com/g2forge/reassert/standard/model/contract/license/standardlicense.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\greg\g2forge\reassert\re-standard\src\main\java\com\g2forge\reassert\standard\model\contract\license\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD3F90D-55F3-4A8C-9E5E-E2BD77AEEF93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE686476-56E4-4B6C-86BF-B3CEFCB53583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="33">
   <si>
     <t>contract</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Zlib</t>
+  </si>
+  <si>
+    <t>NoRedistribution</t>
   </si>
 </sst>
 </file>
@@ -646,7 +649,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -989,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1018,7 @@
     <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1051,8 +1064,11 @@
       <c r="O1" t="s">
         <v>10</v>
       </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1098,8 +1114,11 @@
       <c r="O2" t="s">
         <v>15</v>
       </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1145,8 +1164,11 @@
       <c r="O3" t="s">
         <v>15</v>
       </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1192,8 +1214,11 @@
       <c r="O4" t="s">
         <v>15</v>
       </c>
+      <c r="P4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1239,8 +1264,11 @@
       <c r="O5" t="s">
         <v>15</v>
       </c>
+      <c r="P5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1286,8 +1314,11 @@
       <c r="O6" t="s">
         <v>15</v>
       </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1333,8 +1364,11 @@
       <c r="O7" t="s">
         <v>15</v>
       </c>
+      <c r="P7" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1380,8 +1414,11 @@
       <c r="O8" t="s">
         <v>15</v>
       </c>
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1427,8 +1464,11 @@
       <c r="O9" t="s">
         <v>15</v>
       </c>
+      <c r="P9" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1474,8 +1514,11 @@
       <c r="O10" t="s">
         <v>15</v>
       </c>
+      <c r="P10" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1521,8 +1564,11 @@
       <c r="O11" t="s">
         <v>15</v>
       </c>
+      <c r="P11" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1568,8 +1614,11 @@
       <c r="O12" t="s">
         <v>15</v>
       </c>
+      <c r="P12" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1615,8 +1664,11 @@
       <c r="O13" t="s">
         <v>15</v>
       </c>
+      <c r="P13" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1662,8 +1714,11 @@
       <c r="O14" t="s">
         <v>15</v>
       </c>
+      <c r="P14" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1709,8 +1764,11 @@
       <c r="O15" t="s">
         <v>16</v>
       </c>
+      <c r="P15" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1755,20 +1813,28 @@
       </c>
       <c r="O16" t="s">
         <v>15</v>
+      </c>
+      <c r="P16" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F16">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:K16">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Included"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:K16">
+  <conditionalFormatting sqref="L2:O16">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Included"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:O16">
+  <conditionalFormatting sqref="P2:P16">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Included"</formula>
     </cfRule>

--- a/re-standard/src/main/java/com/g2forge/reassert/standard/model/contract/license/standardlicense.xlsx
+++ b/re-standard/src/main/java/com/g2forge/reassert/standard/model/contract/license/standardlicense.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\greg\g2forge\reassert\re-standard\src\main\java\com\g2forge\reassert\standard\model\contract\license\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE686476-56E4-4B6C-86BF-B3CEFCB53583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81D3B1B-0CED-4C2A-AAE9-4EF23B13B5ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="89">
   <si>
     <t>contract</t>
   </si>
@@ -119,6 +119,174 @@
   </si>
   <si>
     <t>NoRedistribution</t>
+  </si>
+  <si>
+    <t>Beerware</t>
+  </si>
+  <si>
+    <t>FTL</t>
+  </si>
+  <si>
+    <t>ISC</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>Perl5</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>PublicDomain</t>
+  </si>
+  <si>
+    <t>WTFPL</t>
+  </si>
+  <si>
+    <t>BSD-1-Clause</t>
+  </si>
+  <si>
+    <t>BSD-4-Clause</t>
+  </si>
+  <si>
+    <t>BSD-5-Clause</t>
+  </si>
+  <si>
+    <t>CC0</t>
+  </si>
+  <si>
+    <t>CC0-1.0</t>
+  </si>
+  <si>
+    <t>CC-BY-3.0</t>
+  </si>
+  <si>
+    <t>CC-BY-3.0-US</t>
+  </si>
+  <si>
+    <t>CC-BY-SA-2.0</t>
+  </si>
+  <si>
+    <t>CC-BY-SA-2.0-IT</t>
+  </si>
+  <si>
+    <t>CC-BY-SA-3.0</t>
+  </si>
+  <si>
+    <t>CC-BY-SA-3.0-US</t>
+  </si>
+  <si>
+    <t>AFL-2.1</t>
+  </si>
+  <si>
+    <t>AGPL-3.0-only</t>
+  </si>
+  <si>
+    <t>AGPL-3.0-or-later</t>
+  </si>
+  <si>
+    <t>Apache-1.1</t>
+  </si>
+  <si>
+    <t>Apache</t>
+  </si>
+  <si>
+    <t>Artistic-1.0</t>
+  </si>
+  <si>
+    <t>Artistic-2.0</t>
+  </si>
+  <si>
+    <t>BSL-1.0</t>
+  </si>
+  <si>
+    <t>BSL</t>
+  </si>
+  <si>
+    <t>CDDL-1.0</t>
+  </si>
+  <si>
+    <t>CDDL-1.1</t>
+  </si>
+  <si>
+    <t>CPL-1.0</t>
+  </si>
+  <si>
+    <t>EDL-1.0</t>
+  </si>
+  <si>
+    <t>EPL-1.0</t>
+  </si>
+  <si>
+    <t>EPL-2.0</t>
+  </si>
+  <si>
+    <t>GFDL-1.1-only</t>
+  </si>
+  <si>
+    <t>GFDL-1.1-or-later</t>
+  </si>
+  <si>
+    <t>GFDL-1.2-only</t>
+  </si>
+  <si>
+    <t>GFDL-1.2-or-later</t>
+  </si>
+  <si>
+    <t>GFDL-1.3-only</t>
+  </si>
+  <si>
+    <t>GFDL-1.3-or-later</t>
+  </si>
+  <si>
+    <t>IndianaExtreme-1.1.1</t>
+  </si>
+  <si>
+    <t>MPL-1.1</t>
+  </si>
+  <si>
+    <t>MPL-2.0</t>
+  </si>
+  <si>
+    <t>OFL-1.1</t>
+  </si>
+  <si>
+    <t>PSF-2.0</t>
+  </si>
+  <si>
+    <t>Python-2.0</t>
+  </si>
+  <si>
+    <t>Artistic</t>
+  </si>
+  <si>
+    <t>AGPL</t>
+  </si>
+  <si>
+    <t>BSD</t>
+  </si>
+  <si>
+    <t>LGPL</t>
+  </si>
+  <si>
+    <t>GPL</t>
+  </si>
+  <si>
+    <t>MPL</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>GFDL</t>
+  </si>
+  <si>
+    <t>CDDL</t>
+  </si>
+  <si>
+    <t>Unspecified</t>
   </si>
 </sst>
 </file>
@@ -261,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,6 +609,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -602,8 +782,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -649,7 +832,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="163">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -661,6 +844,44 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -673,7 +894,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -684,6 +919,1229 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1002,75 +2460,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="16" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1120,7 +2575,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -1132,25 +2587,25 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -1170,7 +2625,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1182,25 +2637,25 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -1220,7 +2675,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1232,7 +2687,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -1244,7 +2699,7 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
         <v>15</v>
@@ -1270,107 +2725,107 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="N6" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -1388,7 +2843,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -1397,7 +2852,7 @@
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
@@ -1409,7 +2864,7 @@
         <v>15</v>
       </c>
       <c r="N8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O8" t="s">
         <v>15</v>
@@ -1420,107 +2875,107 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="N9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="O9" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="M10" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="N10" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="O10" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1532,13 +2987,13 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -1547,7 +3002,7 @@
         <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
         <v>15</v>
@@ -1559,7 +3014,7 @@
         <v>15</v>
       </c>
       <c r="N11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O11" t="s">
         <v>15</v>
@@ -1570,157 +3025,157 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="N12" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="O12" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="M13" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="N13" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="O13" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="M14" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="N14" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="O14" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1732,7 +3187,7 @@
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -1741,7 +3196,7 @@
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
         <v>16</v>
@@ -1756,86 +3211,3474 @@
         <v>16</v>
       </c>
       <c r="M15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N15" t="s">
         <v>16</v>
       </c>
       <c r="O15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" t="s">
+        <v>88</v>
+      </c>
+      <c r="N18" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" t="s">
+        <v>15</v>
+      </c>
+      <c r="P22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" t="s">
+        <v>15</v>
+      </c>
+      <c r="O23" t="s">
+        <v>15</v>
+      </c>
+      <c r="P23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" t="s">
+        <v>15</v>
+      </c>
+      <c r="P24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" t="s">
+        <v>15</v>
+      </c>
+      <c r="O25" t="s">
+        <v>15</v>
+      </c>
+      <c r="P25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" t="s">
+        <v>15</v>
+      </c>
+      <c r="P26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" t="s">
+        <v>15</v>
+      </c>
+      <c r="L27" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" t="s">
+        <v>15</v>
+      </c>
+      <c r="P27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" t="s">
+        <v>15</v>
+      </c>
+      <c r="N28" t="s">
+        <v>15</v>
+      </c>
+      <c r="O28" t="s">
+        <v>15</v>
+      </c>
+      <c r="P28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" t="s">
+        <v>88</v>
+      </c>
+      <c r="L29" t="s">
+        <v>88</v>
+      </c>
+      <c r="M29" t="s">
+        <v>88</v>
+      </c>
+      <c r="N29" t="s">
+        <v>88</v>
+      </c>
+      <c r="O29" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" t="s">
+        <v>88</v>
+      </c>
+      <c r="J30" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30" t="s">
+        <v>88</v>
+      </c>
+      <c r="L30" t="s">
+        <v>88</v>
+      </c>
+      <c r="M30" t="s">
+        <v>88</v>
+      </c>
+      <c r="N30" t="s">
+        <v>88</v>
+      </c>
+      <c r="O30" t="s">
+        <v>88</v>
+      </c>
+      <c r="P30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" t="s">
+        <v>88</v>
+      </c>
+      <c r="J31" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" t="s">
+        <v>88</v>
+      </c>
+      <c r="L31" t="s">
+        <v>88</v>
+      </c>
+      <c r="M31" t="s">
+        <v>88</v>
+      </c>
+      <c r="N31" t="s">
+        <v>88</v>
+      </c>
+      <c r="O31" t="s">
+        <v>88</v>
+      </c>
+      <c r="P31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" t="s">
+        <v>88</v>
+      </c>
+      <c r="J32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K32" t="s">
+        <v>88</v>
+      </c>
+      <c r="L32" t="s">
+        <v>88</v>
+      </c>
+      <c r="M32" t="s">
+        <v>88</v>
+      </c>
+      <c r="N32" t="s">
+        <v>88</v>
+      </c>
+      <c r="O32" t="s">
+        <v>88</v>
+      </c>
+      <c r="P32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s">
+        <v>88</v>
+      </c>
+      <c r="H33" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" t="s">
+        <v>88</v>
+      </c>
+      <c r="J33" t="s">
+        <v>88</v>
+      </c>
+      <c r="K33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L33" t="s">
+        <v>88</v>
+      </c>
+      <c r="M33" t="s">
+        <v>88</v>
+      </c>
+      <c r="N33" t="s">
+        <v>88</v>
+      </c>
+      <c r="O33" t="s">
+        <v>88</v>
+      </c>
+      <c r="P33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" t="s">
+        <v>15</v>
+      </c>
+      <c r="P34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" t="s">
+        <v>88</v>
+      </c>
+      <c r="J36" t="s">
+        <v>88</v>
+      </c>
+      <c r="K36" t="s">
+        <v>88</v>
+      </c>
+      <c r="L36" t="s">
+        <v>88</v>
+      </c>
+      <c r="M36" t="s">
+        <v>88</v>
+      </c>
+      <c r="N36" t="s">
+        <v>88</v>
+      </c>
+      <c r="O36" t="s">
+        <v>88</v>
+      </c>
+      <c r="P36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J37" t="s">
+        <v>88</v>
+      </c>
+      <c r="K37" t="s">
+        <v>88</v>
+      </c>
+      <c r="L37" t="s">
+        <v>88</v>
+      </c>
+      <c r="M37" t="s">
+        <v>88</v>
+      </c>
+      <c r="N37" t="s">
+        <v>88</v>
+      </c>
+      <c r="O37" t="s">
+        <v>88</v>
+      </c>
+      <c r="P37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" t="s">
+        <v>88</v>
+      </c>
+      <c r="I38" t="s">
+        <v>88</v>
+      </c>
+      <c r="J38" t="s">
+        <v>88</v>
+      </c>
+      <c r="K38" t="s">
+        <v>88</v>
+      </c>
+      <c r="L38" t="s">
+        <v>88</v>
+      </c>
+      <c r="M38" t="s">
+        <v>88</v>
+      </c>
+      <c r="N38" t="s">
+        <v>88</v>
+      </c>
+      <c r="O38" t="s">
+        <v>88</v>
+      </c>
+      <c r="P38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s">
+        <v>88</v>
+      </c>
+      <c r="H39" t="s">
+        <v>88</v>
+      </c>
+      <c r="I39" t="s">
+        <v>88</v>
+      </c>
+      <c r="J39" t="s">
+        <v>88</v>
+      </c>
+      <c r="K39" t="s">
+        <v>88</v>
+      </c>
+      <c r="L39" t="s">
+        <v>88</v>
+      </c>
+      <c r="M39" t="s">
+        <v>88</v>
+      </c>
+      <c r="N39" t="s">
+        <v>88</v>
+      </c>
+      <c r="O39" t="s">
+        <v>88</v>
+      </c>
+      <c r="P39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" t="s">
+        <v>88</v>
+      </c>
+      <c r="J40" t="s">
+        <v>88</v>
+      </c>
+      <c r="K40" t="s">
+        <v>88</v>
+      </c>
+      <c r="L40" t="s">
+        <v>88</v>
+      </c>
+      <c r="M40" t="s">
+        <v>88</v>
+      </c>
+      <c r="N40" t="s">
+        <v>88</v>
+      </c>
+      <c r="O40" t="s">
+        <v>88</v>
+      </c>
+      <c r="P40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" t="s">
+        <v>88</v>
+      </c>
+      <c r="I41" t="s">
+        <v>88</v>
+      </c>
+      <c r="J41" t="s">
+        <v>88</v>
+      </c>
+      <c r="K41" t="s">
+        <v>88</v>
+      </c>
+      <c r="L41" t="s">
+        <v>88</v>
+      </c>
+      <c r="M41" t="s">
+        <v>88</v>
+      </c>
+      <c r="N41" t="s">
+        <v>88</v>
+      </c>
+      <c r="O41" t="s">
+        <v>88</v>
+      </c>
+      <c r="P41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" t="s">
+        <v>88</v>
+      </c>
+      <c r="I42" t="s">
+        <v>88</v>
+      </c>
+      <c r="J42" t="s">
+        <v>88</v>
+      </c>
+      <c r="K42" t="s">
+        <v>88</v>
+      </c>
+      <c r="L42" t="s">
+        <v>88</v>
+      </c>
+      <c r="M42" t="s">
+        <v>88</v>
+      </c>
+      <c r="N42" t="s">
+        <v>88</v>
+      </c>
+      <c r="O42" t="s">
+        <v>88</v>
+      </c>
+      <c r="P42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I43" t="s">
+        <v>88</v>
+      </c>
+      <c r="J43" t="s">
+        <v>88</v>
+      </c>
+      <c r="K43" t="s">
+        <v>88</v>
+      </c>
+      <c r="L43" t="s">
+        <v>88</v>
+      </c>
+      <c r="M43" t="s">
+        <v>88</v>
+      </c>
+      <c r="N43" t="s">
+        <v>88</v>
+      </c>
+      <c r="O43" t="s">
+        <v>88</v>
+      </c>
+      <c r="P43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" t="s">
+        <v>15</v>
+      </c>
+      <c r="L44" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" t="s">
+        <v>15</v>
+      </c>
+      <c r="N44" t="s">
+        <v>16</v>
+      </c>
+      <c r="O44" t="s">
+        <v>15</v>
+      </c>
+      <c r="P44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" t="s">
+        <v>15</v>
+      </c>
+      <c r="L45" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" t="s">
+        <v>15</v>
+      </c>
+      <c r="N45" t="s">
+        <v>16</v>
+      </c>
+      <c r="O45" t="s">
+        <v>15</v>
+      </c>
+      <c r="P45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" t="s">
+        <v>15</v>
+      </c>
+      <c r="L46" t="s">
+        <v>16</v>
+      </c>
+      <c r="M46" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46" t="s">
+        <v>16</v>
+      </c>
+      <c r="O46" t="s">
+        <v>15</v>
+      </c>
+      <c r="P46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" t="s">
+        <v>15</v>
+      </c>
+      <c r="L47" t="s">
+        <v>16</v>
+      </c>
+      <c r="M47" t="s">
+        <v>15</v>
+      </c>
+      <c r="N47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O47" t="s">
+        <v>15</v>
+      </c>
+      <c r="P47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" t="s">
+        <v>15</v>
+      </c>
+      <c r="L48" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" t="s">
+        <v>15</v>
+      </c>
+      <c r="N48" t="s">
+        <v>16</v>
+      </c>
+      <c r="O48" t="s">
+        <v>15</v>
+      </c>
+      <c r="P48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s">
+        <v>88</v>
+      </c>
+      <c r="H49" t="s">
+        <v>88</v>
+      </c>
+      <c r="I49" t="s">
+        <v>88</v>
+      </c>
+      <c r="J49" t="s">
+        <v>88</v>
+      </c>
+      <c r="K49" t="s">
+        <v>88</v>
+      </c>
+      <c r="L49" t="s">
+        <v>88</v>
+      </c>
+      <c r="M49" t="s">
+        <v>88</v>
+      </c>
+      <c r="N49" t="s">
+        <v>88</v>
+      </c>
+      <c r="O49" t="s">
+        <v>88</v>
+      </c>
+      <c r="P49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" t="s">
+        <v>16</v>
+      </c>
+      <c r="M50" t="s">
+        <v>15</v>
+      </c>
+      <c r="N50" t="s">
+        <v>16</v>
+      </c>
+      <c r="O50" t="s">
+        <v>15</v>
+      </c>
+      <c r="P50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" t="s">
+        <v>15</v>
+      </c>
+      <c r="L51" t="s">
+        <v>16</v>
+      </c>
+      <c r="M51" t="s">
+        <v>15</v>
+      </c>
+      <c r="N51" t="s">
+        <v>16</v>
+      </c>
+      <c r="O51" t="s">
+        <v>15</v>
+      </c>
+      <c r="P51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" t="s">
+        <v>15</v>
+      </c>
+      <c r="L52" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" t="s">
+        <v>15</v>
+      </c>
+      <c r="N52" t="s">
+        <v>16</v>
+      </c>
+      <c r="O52" t="s">
+        <v>15</v>
+      </c>
+      <c r="P52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" t="s">
+        <v>15</v>
+      </c>
+      <c r="L53" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" t="s">
+        <v>15</v>
+      </c>
+      <c r="N53" t="s">
+        <v>16</v>
+      </c>
+      <c r="O53" t="s">
+        <v>15</v>
+      </c>
+      <c r="P53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" t="s">
+        <v>15</v>
+      </c>
+      <c r="L54" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" t="s">
+        <v>15</v>
+      </c>
+      <c r="N54" t="s">
+        <v>16</v>
+      </c>
+      <c r="O54" t="s">
+        <v>15</v>
+      </c>
+      <c r="P54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" t="s">
+        <v>15</v>
+      </c>
+      <c r="L55" t="s">
+        <v>16</v>
+      </c>
+      <c r="M55" t="s">
+        <v>15</v>
+      </c>
+      <c r="N55" t="s">
+        <v>16</v>
+      </c>
+      <c r="O55" t="s">
+        <v>15</v>
+      </c>
+      <c r="P55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" t="s">
+        <v>15</v>
+      </c>
+      <c r="L56" t="s">
+        <v>16</v>
+      </c>
+      <c r="M56" t="s">
+        <v>15</v>
+      </c>
+      <c r="N56" t="s">
+        <v>16</v>
+      </c>
+      <c r="O56" t="s">
+        <v>15</v>
+      </c>
+      <c r="P56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" t="s">
+        <v>15</v>
+      </c>
+      <c r="L57" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" t="s">
+        <v>15</v>
+      </c>
+      <c r="N57" t="s">
+        <v>16</v>
+      </c>
+      <c r="O57" t="s">
+        <v>15</v>
+      </c>
+      <c r="P57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" t="s">
+        <v>16</v>
+      </c>
+      <c r="L58" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" t="s">
+        <v>15</v>
+      </c>
+      <c r="N58" t="s">
+        <v>16</v>
+      </c>
+      <c r="O58" t="s">
+        <v>15</v>
+      </c>
+      <c r="P58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59" t="s">
+        <v>88</v>
+      </c>
+      <c r="H59" t="s">
+        <v>88</v>
+      </c>
+      <c r="I59" t="s">
+        <v>88</v>
+      </c>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+      <c r="K59" t="s">
+        <v>88</v>
+      </c>
+      <c r="L59" t="s">
+        <v>88</v>
+      </c>
+      <c r="M59" t="s">
+        <v>88</v>
+      </c>
+      <c r="N59" t="s">
+        <v>88</v>
+      </c>
+      <c r="O59" t="s">
+        <v>88</v>
+      </c>
+      <c r="P59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" t="s">
+        <v>88</v>
+      </c>
+      <c r="G60" t="s">
+        <v>88</v>
+      </c>
+      <c r="H60" t="s">
+        <v>88</v>
+      </c>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+      <c r="K60" t="s">
+        <v>88</v>
+      </c>
+      <c r="L60" t="s">
+        <v>88</v>
+      </c>
+      <c r="M60" t="s">
+        <v>88</v>
+      </c>
+      <c r="N60" t="s">
+        <v>88</v>
+      </c>
+      <c r="O60" t="s">
+        <v>88</v>
+      </c>
+      <c r="P60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>15</v>
+      </c>
+      <c r="K61" t="s">
+        <v>16</v>
+      </c>
+      <c r="L61" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" t="s">
+        <v>15</v>
+      </c>
+      <c r="N61" t="s">
+        <v>15</v>
+      </c>
+      <c r="O61" t="s">
+        <v>15</v>
+      </c>
+      <c r="P61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" t="s">
+        <v>16</v>
+      </c>
+      <c r="L62" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" t="s">
+        <v>15</v>
+      </c>
+      <c r="N62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O62" t="s">
+        <v>15</v>
+      </c>
+      <c r="P62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" t="s">
+        <v>16</v>
+      </c>
+      <c r="L63" t="s">
+        <v>16</v>
+      </c>
+      <c r="M63" t="s">
+        <v>16</v>
+      </c>
+      <c r="N63" t="s">
+        <v>16</v>
+      </c>
+      <c r="O63" t="s">
+        <v>16</v>
+      </c>
+      <c r="P63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" t="s">
+        <v>88</v>
+      </c>
+      <c r="H64" t="s">
+        <v>88</v>
+      </c>
+      <c r="I64" t="s">
+        <v>88</v>
+      </c>
+      <c r="J64" t="s">
+        <v>88</v>
+      </c>
+      <c r="K64" t="s">
+        <v>88</v>
+      </c>
+      <c r="L64" t="s">
+        <v>88</v>
+      </c>
+      <c r="M64" t="s">
+        <v>88</v>
+      </c>
+      <c r="N64" t="s">
+        <v>88</v>
+      </c>
+      <c r="O64" t="s">
+        <v>88</v>
+      </c>
+      <c r="P64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" t="s">
+        <v>16</v>
+      </c>
+      <c r="L65" t="s">
+        <v>16</v>
+      </c>
+      <c r="M65" t="s">
+        <v>15</v>
+      </c>
+      <c r="N65" t="s">
+        <v>16</v>
+      </c>
+      <c r="O65" t="s">
+        <v>15</v>
+      </c>
+      <c r="P65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66" t="s">
+        <v>88</v>
+      </c>
+      <c r="H66" t="s">
+        <v>88</v>
+      </c>
+      <c r="I66" t="s">
+        <v>88</v>
+      </c>
+      <c r="J66" t="s">
+        <v>88</v>
+      </c>
+      <c r="K66" t="s">
+        <v>88</v>
+      </c>
+      <c r="L66" t="s">
+        <v>88</v>
+      </c>
+      <c r="M66" t="s">
+        <v>88</v>
+      </c>
+      <c r="N66" t="s">
+        <v>88</v>
+      </c>
+      <c r="O66" t="s">
+        <v>88</v>
+      </c>
+      <c r="P66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" t="s">
+        <v>16</v>
+      </c>
+      <c r="L67" t="s">
+        <v>16</v>
+      </c>
+      <c r="M67" t="s">
+        <v>16</v>
+      </c>
+      <c r="N67" t="s">
+        <v>16</v>
+      </c>
+      <c r="O67" t="s">
+        <v>16</v>
+      </c>
+      <c r="P67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F68" t="s">
+        <v>88</v>
+      </c>
+      <c r="G68" t="s">
+        <v>88</v>
+      </c>
+      <c r="H68" t="s">
+        <v>88</v>
+      </c>
+      <c r="I68" t="s">
+        <v>88</v>
+      </c>
+      <c r="J68" t="s">
+        <v>88</v>
+      </c>
+      <c r="K68" t="s">
+        <v>88</v>
+      </c>
+      <c r="L68" t="s">
+        <v>88</v>
+      </c>
+      <c r="M68" t="s">
+        <v>88</v>
+      </c>
+      <c r="N68" t="s">
+        <v>88</v>
+      </c>
+      <c r="O68" t="s">
+        <v>88</v>
+      </c>
+      <c r="P68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" t="s">
+        <v>88</v>
+      </c>
+      <c r="D69" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" t="s">
+        <v>88</v>
+      </c>
+      <c r="F69" t="s">
+        <v>88</v>
+      </c>
+      <c r="G69" t="s">
+        <v>88</v>
+      </c>
+      <c r="H69" t="s">
+        <v>88</v>
+      </c>
+      <c r="I69" t="s">
+        <v>88</v>
+      </c>
+      <c r="J69" t="s">
+        <v>88</v>
+      </c>
+      <c r="K69" t="s">
+        <v>88</v>
+      </c>
+      <c r="L69" t="s">
+        <v>88</v>
+      </c>
+      <c r="M69" t="s">
+        <v>88</v>
+      </c>
+      <c r="N69" t="s">
+        <v>88</v>
+      </c>
+      <c r="O69" t="s">
+        <v>88</v>
+      </c>
+      <c r="P69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" t="s">
+        <v>16</v>
+      </c>
+      <c r="L70" t="s">
+        <v>16</v>
+      </c>
+      <c r="M70" t="s">
+        <v>16</v>
+      </c>
+      <c r="N70" t="s">
+        <v>16</v>
+      </c>
+      <c r="O70" t="s">
+        <v>16</v>
+      </c>
+      <c r="P70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" t="s">
-        <v>15</v>
-      </c>
-      <c r="N16" t="s">
-        <v>16</v>
-      </c>
-      <c r="O16" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" t="s">
+        <v>15</v>
+      </c>
+      <c r="L71" t="s">
+        <v>16</v>
+      </c>
+      <c r="M71" t="s">
+        <v>15</v>
+      </c>
+      <c r="N71" t="s">
+        <v>16</v>
+      </c>
+      <c r="O71" t="s">
+        <v>15</v>
+      </c>
+      <c r="P71" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:F16">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"Included"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:K16">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"Included"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:O16">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Included"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P234">
+    <sortCondition ref="A2:A234"/>
+  </sortState>
+  <conditionalFormatting sqref="B18:F18 B6:F10 B45:F49 B12:F16 B52:F57 B68:F71 B63:F64 B59:F60 B66:F66 B36:F43 B22:F22 B29:F33">
+    <cfRule type="cellIs" dxfId="162" priority="172" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="187" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:K18 G6:K10 G45:K49 G12:K16 G52:K57 G68:K71 G63:K64 G59:K60 G66:K66 G36:K43 G22:K22 G29:K33">
+    <cfRule type="cellIs" dxfId="160" priority="171" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="186" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6:P10 P12:P15">
+    <cfRule type="cellIs" dxfId="158" priority="184" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:P18 L6:P10 L45:P49 L12:P16 L52:P57 L68:P71 L63:P64 L59:P60 L66:P66 L36:P43 L22:P22 L29:P33">
+    <cfRule type="cellIs" dxfId="157" priority="170" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="185" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:F2">
+    <cfRule type="cellIs" dxfId="155" priority="165" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="169" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:K2">
+    <cfRule type="cellIs" dxfId="153" priority="164" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="168" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2">
+    <cfRule type="cellIs" dxfId="151" priority="166" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:P2">
+    <cfRule type="cellIs" dxfId="150" priority="163" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="167" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:F17">
+    <cfRule type="cellIs" dxfId="148" priority="146" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="149" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:K17">
+    <cfRule type="cellIs" dxfId="146" priority="145" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="148" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:P17">
+    <cfRule type="cellIs" dxfId="144" priority="144" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="147" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:F20">
+    <cfRule type="cellIs" dxfId="142" priority="140" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="143" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:K20">
+    <cfRule type="cellIs" dxfId="140" priority="139" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="142" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20:P20">
+    <cfRule type="cellIs" dxfId="138" priority="138" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="141" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:F19">
+    <cfRule type="cellIs" dxfId="136" priority="134" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="137" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:K19">
+    <cfRule type="cellIs" dxfId="134" priority="133" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="136" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19:P19">
+    <cfRule type="cellIs" dxfId="132" priority="132" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="135" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F4">
+    <cfRule type="cellIs" dxfId="130" priority="128" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="131" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:H4 J4:K4">
+    <cfRule type="cellIs" dxfId="128" priority="127" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="130" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:P4">
+    <cfRule type="cellIs" dxfId="126" priority="126" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="129" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:D5 F5">
+    <cfRule type="cellIs" dxfId="124" priority="122" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="125" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:H5 J5:K5">
+    <cfRule type="cellIs" dxfId="122" priority="121" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="124" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:P5">
+    <cfRule type="cellIs" dxfId="120" priority="120" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="123" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:F3">
+    <cfRule type="cellIs" dxfId="118" priority="116" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="119" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:K3 I4:I5">
+    <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="118" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:P3">
+    <cfRule type="cellIs" dxfId="114" priority="114" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="117" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="112" priority="112" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="113" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:F51">
+    <cfRule type="cellIs" dxfId="110" priority="108" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="111" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51:K51">
+    <cfRule type="cellIs" dxfId="108" priority="107" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="110" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51:P51">
+    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="109" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:F44">
+    <cfRule type="cellIs" dxfId="104" priority="102" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="105" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:K44">
+    <cfRule type="cellIs" dxfId="102" priority="101" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="104" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44:P44">
+    <cfRule type="cellIs" dxfId="100" priority="100" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="103" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:F11">
+    <cfRule type="cellIs" dxfId="98" priority="95" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:K11">
+    <cfRule type="cellIs" dxfId="96" priority="94" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="98" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11">
+    <cfRule type="cellIs" dxfId="94" priority="96" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:P11">
+    <cfRule type="cellIs" dxfId="93" priority="93" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="97" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:F67">
+    <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="92" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67:K67">
+    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="91" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L67:P67">
+    <cfRule type="cellIs" dxfId="87" priority="87" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="90" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62:F62">
+    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="86" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62:K62">
+    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="85" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L62:P62">
+    <cfRule type="cellIs" dxfId="81" priority="81" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="84" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:F58">
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="80" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58:K58">
+    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="79" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58:P58">
+    <cfRule type="cellIs" dxfId="75" priority="75" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="78" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:F65">
+    <cfRule type="cellIs" dxfId="73" priority="71" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="74" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65:K65">
+    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L65:P65">
+    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:F61">
+    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G61:K61">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="67" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L61:P61">
+    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="66" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:F34">
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:K34">
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="61" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34:P34">
+    <cfRule type="cellIs" dxfId="57" priority="57" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:D35 F35">
+    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:K35">
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="55" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:P35">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:F50">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50:K50">
+    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50:P50">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:F21">
+    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:K21">
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21:P21">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:F25">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:K25">
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="35" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:P25">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:F26">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:K26">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26:P26">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:F27">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="24" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:K27">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:P27">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:F28">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:K28">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L28:P28">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:F24">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:K24">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:P24">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:F23">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:K23">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"Included"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23:P23">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Unspecified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Included"</formula>
     </cfRule>
   </conditionalFormatting>
